--- a/counting_reads.xlsx
+++ b/counting_reads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lowry-Hexadecenoic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22215993-3CD4-4369-B560-86E8D902D775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0432F234-B511-4BF8-AD97-AB2F4F8EF91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="3810" windowWidth="28800" windowHeight="15435" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
+    <workbookView xWindow="9750" yWindow="3390" windowWidth="26370" windowHeight="13035" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,61 +34,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Sample Name</t>
   </si>
   <si>
-    <t>FastQ total reads</t>
-  </si>
-  <si>
     <t>Mapped Total Reads</t>
   </si>
   <si>
     <t>Rsubread Counted Reads</t>
   </si>
   <si>
-    <t>X1h.m1.t</t>
-  </si>
-  <si>
-    <t>X1h.m1.u</t>
-  </si>
-  <si>
-    <t>X1h.m2.t</t>
-  </si>
-  <si>
-    <t>X1h.m2.u</t>
-  </si>
-  <si>
-    <t>X1h.m3.t</t>
-  </si>
-  <si>
-    <t>X1h.m3.u</t>
-  </si>
-  <si>
-    <t>X6h.m1.t</t>
-  </si>
-  <si>
-    <t>X6h.m1.u</t>
-  </si>
-  <si>
-    <t>X6h.m2.t</t>
-  </si>
-  <si>
-    <t>X6h.m2.u</t>
-  </si>
-  <si>
-    <t>X6h.m3.t</t>
-  </si>
-  <si>
-    <t>X6h.m3.u</t>
+    <t>1h.m1.t.lane1</t>
+  </si>
+  <si>
+    <t>1h.m1.t.lane2</t>
+  </si>
+  <si>
+    <t>1h.m1.u.lane1</t>
+  </si>
+  <si>
+    <t>1h.m1.u.lane2</t>
+  </si>
+  <si>
+    <t>1h.m2.t.lane1</t>
+  </si>
+  <si>
+    <t>1h.m2.t.lane2</t>
+  </si>
+  <si>
+    <t>1h.m2.u.lane1</t>
+  </si>
+  <si>
+    <t>1h.m2.u.lane2</t>
+  </si>
+  <si>
+    <t>1h.m3.t.lane1</t>
+  </si>
+  <si>
+    <t>1h.m3.t.lane2</t>
+  </si>
+  <si>
+    <t>1h.m3.u.lane1</t>
+  </si>
+  <si>
+    <t>1h.m3.u.lane2</t>
+  </si>
+  <si>
+    <t>6h.m1.t.lane1</t>
+  </si>
+  <si>
+    <t>6h.m1.t.lane2</t>
+  </si>
+  <si>
+    <t>6h.m1.u.lane1</t>
+  </si>
+  <si>
+    <t>6h.m1.u.lane2</t>
+  </si>
+  <si>
+    <t>6h.m2.t.lane1</t>
+  </si>
+  <si>
+    <t>6h.m2.t.lane2</t>
+  </si>
+  <si>
+    <t>6h.m2.u.lane1</t>
+  </si>
+  <si>
+    <t>6h.m2.u.lane2</t>
+  </si>
+  <si>
+    <t>6h.m3.t.lane1</t>
+  </si>
+  <si>
+    <t>6h.m3.t.lane2</t>
+  </si>
+  <si>
+    <t>6h.m3.u.lane1</t>
+  </si>
+  <si>
+    <t>6h.m3.u.lane2</t>
+  </si>
+  <si>
+    <t>R1 FastQ total lines (wc -1)</t>
+  </si>
+  <si>
+    <t>R2 FastQ total lines (wc -1)</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>Merged Count Expected</t>
+  </si>
+  <si>
+    <t>Merged Count Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +144,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,12 +175,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,89 +533,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD1803E-249E-439E-B58E-94C864AFF745}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>56885120</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/4</f>
+        <v>14221280</v>
+      </c>
+      <c r="D2" s="1">
+        <v>56885120</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/4</f>
+        <v>14221280</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2+E2</f>
+        <v>28442560</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>56441868</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C24" si="0">B3/4</f>
+        <v>14110467</v>
+      </c>
+      <c r="D3">
+        <v>56441868</v>
+      </c>
+      <c r="E3">
+        <f>D3/4</f>
+        <v>14110467</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F25" si="1">C3+E3</f>
+        <v>28220934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>60425408</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>15106352</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60425408</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E3:E25" si="2">D4/4</f>
+        <v>15106352</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>30212704</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>53789812</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>13447453</v>
+      </c>
+      <c r="D5">
+        <v>53789812</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>13447453</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>26894906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>57365616</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>14341404</v>
+      </c>
+      <c r="D6" s="1">
+        <v>57365616</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>14341404</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>28682808</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>53672336</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>13418084</v>
+      </c>
+      <c r="D7">
+        <v>53672336</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>13418084</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>26836168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>52195832</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>13048958</v>
+      </c>
+      <c r="D8" s="1">
+        <v>52195832</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>13048958</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>26097916</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>49008392</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>12252098</v>
+      </c>
+      <c r="D9">
+        <v>49008392</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>12252098</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>24504196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>62579528</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>15644882</v>
+      </c>
+      <c r="D10" s="1">
+        <v>62579528</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>15644882</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>31289764</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>55384480</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>13846120</v>
+      </c>
+      <c r="D11">
+        <v>55384480</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>13846120</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>27692240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>53264344</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>13316086</v>
+      </c>
+      <c r="D12" s="1">
+        <v>53264344</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>13316086</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>26632172</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>49466744</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12366686</v>
+      </c>
+      <c r="D13">
+        <v>49466744</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>12366686</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>24733372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>54038268</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>13509567</v>
+      </c>
+      <c r="D14" s="1">
+        <v>54038268</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>13509567</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>27019134</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>48701636</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>12175409</v>
+      </c>
+      <c r="D15">
+        <v>48701636</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>12175409</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>24350818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60236508</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>15059127</v>
+      </c>
+      <c r="D16" s="1">
+        <v>60236508</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>15059127</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>30118254</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>53100748</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>13275187</v>
+      </c>
+      <c r="D17">
+        <v>53100748</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>13275187</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>26550374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>66130580</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>16532645</v>
+      </c>
+      <c r="D18" s="1">
+        <v>66130580</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>16532645</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>33065290</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>59476080</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>14869020</v>
+      </c>
+      <c r="D19">
+        <v>59476080</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>14869020</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>29738040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>64427980</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>16106995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>64427980</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>16106995</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>32213990</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>56999636</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>14249909</v>
+      </c>
+      <c r="D21">
+        <v>56999636</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>14249909</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>28499818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>65771028</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>16442757</v>
+      </c>
+      <c r="D22" s="1">
+        <v>65771028</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>16442757</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>32885514</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>61628976</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>15407244</v>
+      </c>
+      <c r="D23">
+        <v>61628976</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>15407244</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>30814488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>47905780</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>11976445</v>
+      </c>
+      <c r="D24" s="1">
+        <v>47905780</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>11976445</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>23952890</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>46847264</v>
+      </c>
+      <c r="C25">
+        <f>B25/4</f>
+        <v>11711816</v>
+      </c>
+      <c r="D25">
+        <v>46847264</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>11711816</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>23423632</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/counting_reads.xlsx
+++ b/counting_reads.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lowry-Hexadecenoic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0432F234-B511-4BF8-AD97-AB2F4F8EF91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D198B4C-B226-4AB0-B581-5870488A9042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="3390" windowWidth="26370" windowHeight="13035" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
+    <workbookView xWindow="-26475" yWindow="9255" windowWidth="16815" windowHeight="13035" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Mapped Total Reads</t>
-  </si>
-  <si>
     <t>Rsubread Counted Reads</t>
   </si>
   <si>
@@ -126,10 +124,10 @@
     <t>Counts</t>
   </si>
   <si>
-    <t>Merged Count Expected</t>
-  </si>
-  <si>
-    <t>Merged Count Actual</t>
+    <t>Mapped, Merged Reads</t>
+  </si>
+  <si>
+    <t>Merged Count</t>
   </si>
 </sst>
 </file>
@@ -547,9 +545,7 @@
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -557,33 +553,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>56885120</v>
@@ -600,14 +593,23 @@
         <v>14221280</v>
       </c>
       <c r="F2" s="2">
-        <f>C2+E2</f>
-        <v>28442560</v>
-      </c>
-      <c r="G2" s="2"/>
+        <f>C2+E2+C3+E3</f>
+        <v>56663494</v>
+      </c>
+      <c r="G2" s="2">
+        <v>52465267</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8887177</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/G2*100</f>
+        <v>16.939162817945824</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>56441868</v>
@@ -623,14 +625,10 @@
         <f>D3/4</f>
         <v>14110467</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F25" si="1">C3+E3</f>
-        <v>28220934</v>
-      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>60425408</v>
@@ -643,18 +641,27 @@
         <v>60425408</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E3:E25" si="2">D4/4</f>
+        <f t="shared" ref="E4:E25" si="1">D4/4</f>
         <v>15106352</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>30212704</v>
-      </c>
-      <c r="G4" s="2"/>
+        <f t="shared" ref="F4" si="2">C4+E4+C5+E5</f>
+        <v>57107610</v>
+      </c>
+      <c r="G4" s="2">
+        <v>55975563</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10978527</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4" si="3">H4/G4*100</f>
+        <v>19.613071153924793</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>53789812</v>
@@ -667,17 +674,13 @@
         <v>53789812</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13447453</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>26894906</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>57365616</v>
@@ -690,18 +693,27 @@
         <v>57365616</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14341404</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>28682808</v>
-      </c>
-      <c r="G6" s="2"/>
+        <f t="shared" ref="F6" si="4">C6+E6+C7+E7</f>
+        <v>55518976</v>
+      </c>
+      <c r="G6" s="2">
+        <v>53337680</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10454654</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ref="I6" si="5">H6/G6*100</f>
+        <v>19.600878778379563</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>53672336</v>
@@ -714,17 +726,13 @@
         <v>53672336</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13418084</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>26836168</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>52195832</v>
@@ -737,18 +745,27 @@
         <v>52195832</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13048958</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>26097916</v>
-      </c>
-      <c r="G8" s="2"/>
+        <f t="shared" ref="F8" si="6">C8+E8+C9+E9</f>
+        <v>50602112</v>
+      </c>
+      <c r="G8" s="2">
+        <v>49330659</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9788885</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8" si="7">H8/G8*100</f>
+        <v>19.843410159998065</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>49008392</v>
@@ -761,17 +778,13 @@
         <v>49008392</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12252098</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>24504196</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>62579528</v>
@@ -784,18 +797,27 @@
         <v>62579528</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15644882</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>31289764</v>
-      </c>
-      <c r="G10" s="2"/>
+        <f t="shared" ref="F10" si="8">C10+E10+C11+E11</f>
+        <v>58982004</v>
+      </c>
+      <c r="G10" s="2">
+        <v>56650703</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11688250</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="9">H10/G10*100</f>
+        <v>20.632135844810257</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>55384480</v>
@@ -808,17 +830,13 @@
         <v>55384480</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13846120</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>27692240</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>53264344</v>
@@ -831,18 +849,27 @@
         <v>53264344</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13316086</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>26632172</v>
-      </c>
-      <c r="G12" s="2"/>
+        <f t="shared" ref="F12" si="10">C12+E12+C13+E13</f>
+        <v>51365544</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50172651</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10351514</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ref="I12" si="11">H12/G12*100</f>
+        <v>20.631786030201994</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>49466744</v>
@@ -855,17 +882,13 @@
         <v>49466744</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12366686</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>24733372</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>54038268</v>
@@ -878,18 +901,27 @@
         <v>54038268</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13509567</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>27019134</v>
-      </c>
-      <c r="G14" s="2"/>
+        <f t="shared" ref="F14" si="12">C14+E14+C15+E15</f>
+        <v>51369952</v>
+      </c>
+      <c r="G14" s="2">
+        <v>54779565</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13085572</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14" si="13">H14/G14*100</f>
+        <v>23.887688775914885</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>48701636</v>
@@ -902,17 +934,13 @@
         <v>48701636</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12175409</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>24350818</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>60236508</v>
@@ -925,18 +953,27 @@
         <v>60236508</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15059127</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>30118254</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F16" si="14">C16+E16+C17+E17</f>
+        <v>56668628</v>
+      </c>
+      <c r="G16" s="2">
+        <v>58622664</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14637939</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16" si="15">H16/G16*100</f>
+        <v>24.969760841984254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>53100748</v>
@@ -949,17 +986,13 @@
         <v>53100748</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13275187</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>26550374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>66130580</v>
@@ -972,18 +1005,27 @@
         <v>66130580</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16532645</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>33065290</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F18" si="16">C18+E18+C19+E19</f>
+        <v>62803330</v>
+      </c>
+      <c r="G18" s="2">
+        <v>67173556</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16592537</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ref="I18" si="17">H18/G18*100</f>
+        <v>24.700995433381554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>59476080</v>
@@ -996,17 +1038,13 @@
         <v>59476080</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14869020</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>29738040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>64427980</v>
@@ -1019,18 +1057,27 @@
         <v>64427980</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16106995</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>32213990</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F20" si="18">C20+E20+C21+E21</f>
+        <v>60713808</v>
+      </c>
+      <c r="G20" s="2">
+        <v>63437925</v>
+      </c>
+      <c r="H20" s="2">
+        <v>16292329</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" ref="I20" si="19">H20/G20*100</f>
+        <v>25.682317005166862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>56999636</v>
@@ -1043,17 +1090,13 @@
         <v>56999636</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14249909</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>28499818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>65771028</v>
@@ -1066,18 +1109,27 @@
         <v>65771028</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16442757</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>32885514</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F22" si="20">C22+E22+C23+E23</f>
+        <v>63700002</v>
+      </c>
+      <c r="G22" s="2">
+        <v>66164797</v>
+      </c>
+      <c r="H22" s="2">
+        <v>15811890</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" ref="I22" si="21">H22/G22*100</f>
+        <v>23.897738248936211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>61628976</v>
@@ -1090,17 +1142,13 @@
         <v>61628976</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15407244</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>30814488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>47905780</v>
@@ -1113,18 +1161,27 @@
         <v>47905780</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11976445</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>23952890</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F24" si="22">C24+E24+C25+E25</f>
+        <v>47376522</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50460653</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12228936</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24" si="23">H24/G24*100</f>
+        <v>24.234597201903036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>46847264</v>
@@ -1137,16 +1194,67 @@
         <v>46847264</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11711816</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>23423632</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4D5F23-DA9B-4E0E-AA80-8F68B0CF0770}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="A2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>13085572</v>
+      </c>
+      <c r="C1">
+        <v>14637939</v>
+      </c>
+      <c r="E1">
+        <v>16592537</v>
+      </c>
+      <c r="G1">
+        <v>16292329</v>
+      </c>
+      <c r="I1">
+        <v>15811890</v>
+      </c>
+      <c r="K1">
+        <v>12228936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8887177</v>
+      </c>
+      <c r="C2">
+        <v>10978527</v>
+      </c>
+      <c r="E2">
+        <v>10454654</v>
+      </c>
+      <c r="G2">
+        <v>9788885</v>
+      </c>
+      <c r="I2">
+        <v>11688250</v>
+      </c>
+      <c r="K2">
+        <v>10351514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/counting_reads.xlsx
+++ b/counting_reads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lowry-Hexadecenoic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D198B4C-B226-4AB0-B581-5870488A9042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F3BA94-7931-4D27-9F46-6E6A4B84D511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26475" yWindow="9255" windowWidth="16815" windowHeight="13035" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
+    <workbookView xWindow="1320" yWindow="2820" windowWidth="17880" windowHeight="16005" xr2:uid="{3297B887-EC62-4844-84AC-6C8C31746B61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,14 +597,14 @@
         <v>56663494</v>
       </c>
       <c r="G2" s="2">
-        <v>52465267</v>
+        <v>34658810</v>
       </c>
       <c r="H2" s="2">
         <v>8887177</v>
       </c>
       <c r="I2" s="1">
         <f>H2/G2*100</f>
-        <v>16.939162817945824</v>
+        <v>25.641898841881762</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,14 +649,14 @@
         <v>57107610</v>
       </c>
       <c r="G4" s="2">
-        <v>55975563</v>
+        <v>40747772</v>
       </c>
       <c r="H4" s="2">
         <v>10978527</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4" si="3">H4/G4*100</f>
-        <v>19.613071153924793</v>
+        <v>26.942643637055784</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,14 +701,14 @@
         <v>55518976</v>
       </c>
       <c r="G6" s="2">
-        <v>53337680</v>
+        <v>40331686</v>
       </c>
       <c r="H6" s="2">
         <v>10454654</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ref="I6" si="5">H6/G6*100</f>
-        <v>19.600878778379563</v>
+        <v>25.921688470945647</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -753,14 +753,14 @@
         <v>50602112</v>
       </c>
       <c r="G8" s="2">
-        <v>49330659</v>
+        <v>36973613</v>
       </c>
       <c r="H8" s="2">
         <v>9788885</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ref="I8" si="7">H8/G8*100</f>
-        <v>19.843410159998065</v>
+        <v>26.475327147498405</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -805,14 +805,14 @@
         <v>58982004</v>
       </c>
       <c r="G10" s="2">
-        <v>56650703</v>
+        <v>41336747</v>
       </c>
       <c r="H10" s="2">
         <v>11688250</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="9">H10/G10*100</f>
-        <v>20.632135844810257</v>
+        <v>28.275688940883519</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,14 +857,14 @@
         <v>51365544</v>
       </c>
       <c r="G12" s="2">
-        <v>50172651</v>
+        <v>39233744</v>
       </c>
       <c r="H12" s="2">
         <v>10351514</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12" si="11">H12/G12*100</f>
-        <v>20.631786030201994</v>
+        <v>26.384211509357865</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,14 +909,14 @@
         <v>51369952</v>
       </c>
       <c r="G14" s="2">
-        <v>54779565</v>
+        <v>48573222</v>
       </c>
       <c r="H14" s="2">
         <v>13085572</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ref="I14" si="13">H14/G14*100</f>
-        <v>23.887688775914885</v>
+        <v>26.939888813634806</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -961,14 +961,14 @@
         <v>56668628</v>
       </c>
       <c r="G16" s="2">
-        <v>58622664</v>
+        <v>49980520</v>
       </c>
       <c r="H16" s="2">
         <v>14637939</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16" si="15">H16/G16*100</f>
-        <v>24.969760841984254</v>
+        <v>29.287288327532409</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1013,14 +1013,14 @@
         <v>62803330</v>
       </c>
       <c r="G18" s="2">
-        <v>67173556</v>
+        <v>60592275</v>
       </c>
       <c r="H18" s="2">
         <v>16592537</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ref="I18" si="17">H18/G18*100</f>
-        <v>24.700995433381554</v>
+        <v>27.383914863734692</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1065,14 +1065,14 @@
         <v>60713808</v>
       </c>
       <c r="G20" s="2">
-        <v>63437925</v>
+        <v>55016183</v>
       </c>
       <c r="H20" s="2">
         <v>16292329</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ref="I20" si="19">H20/G20*100</f>
-        <v>25.682317005166862</v>
+        <v>29.613702935370849</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1117,14 +1117,14 @@
         <v>63700002</v>
       </c>
       <c r="G22" s="2">
-        <v>66164797</v>
+        <v>57266167</v>
       </c>
       <c r="H22" s="2">
         <v>15811890</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22" si="21">H22/G22*100</f>
-        <v>23.897738248936211</v>
+        <v>27.611224617146107</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1169,14 +1169,14 @@
         <v>47376522</v>
       </c>
       <c r="G24" s="2">
-        <v>50460653</v>
+        <v>44956171</v>
       </c>
       <c r="H24" s="2">
         <v>12228936</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ref="I24" si="23">H24/G24*100</f>
-        <v>24.234597201903036</v>
+        <v>27.201907386641089</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
